--- a/nodes_source_analyses/households/households_space_heater_district_heating_steam_hot_water.xlsx
+++ b/nodes_source_analyses/households/households_space_heater_district_heating_steam_hot_water.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BFA19B-5A91-A246-B78B-FF6FAB015BC4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A0C8E4-C3DE-5B4A-965C-1C65EBB108BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -50,6 +50,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="316">
   <si>
     <t>Source</t>
   </si>
@@ -1127,6 +1128,9 @@
   </si>
   <si>
     <t>Connection capacity</t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -2145,7 +2149,7 @@
     <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2439,9 +2443,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="256" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" xfId="256" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="32" xfId="258" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2451,6 +2452,10 @@
     <xf numFmtId="0" fontId="32" fillId="13" borderId="30" xfId="258" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" xfId="256" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="261">
     <cellStyle name="Currency 4" xfId="260" xr:uid="{81B37BD5-6B62-654F-81E3-8BA15676091D}"/>
@@ -3993,12 +3998,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
@@ -4172,23 +4177,23 @@
   </sheetPr>
   <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="46.1640625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -4601,14 +4606,16 @@
         <v>2</v>
       </c>
       <c r="E27" s="43">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="33"/>
-      <c r="I27" s="31"/>
+      <c r="I27" s="191" t="s">
+        <v>315</v>
+      </c>
       <c r="J27" s="104"/>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1">
@@ -4759,19 +4766,19 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="60" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="60" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="60" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="60" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="60" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="60" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="60" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="60" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="60" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="60" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="60" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="60" customWidth="1"/>
     <col min="8" max="8" width="4" style="60" customWidth="1"/>
     <col min="9" max="9" width="16" style="60" customWidth="1"/>
     <col min="10" max="10" width="3" style="61" customWidth="1"/>
     <col min="11" max="11" width="60" style="60" customWidth="1"/>
-    <col min="12" max="16384" width="10.6640625" style="60"/>
+    <col min="12" max="16384" width="10.7109375" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -5077,18 +5084,18 @@
       <selection activeCell="C9" sqref="C9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="46" customWidth="1"/>
     <col min="11" max="11" width="66" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="45"/>
+    <col min="12" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -5168,21 +5175,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41840216-D91C-D24F-ACBE-E730450F5F6E}">
   <dimension ref="B2:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="128" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="128" customWidth="1"/>
-    <col min="3" max="3" width="39.5" style="128" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="128" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="128" customWidth="1"/>
-    <col min="6" max="13" width="10.6640625" style="128"/>
-    <col min="14" max="14" width="16.83203125" style="128" customWidth="1"/>
-    <col min="15" max="15" width="26.33203125" style="128" customWidth="1"/>
-    <col min="16" max="16384" width="10.6640625" style="128"/>
+    <col min="1" max="1" width="5.85546875" style="128" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="128" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="128" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="128" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="128" customWidth="1"/>
+    <col min="6" max="13" width="10.7109375" style="128"/>
+    <col min="14" max="14" width="16.85546875" style="128" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" style="128" customWidth="1"/>
+    <col min="16" max="16384" width="10.7109375" style="128"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="17" thickBot="1"/>
@@ -6142,13 +6149,13 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="136"/>
-    <col min="2" max="2" width="24.1640625" style="136" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" style="136" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="136" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="136" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="136" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="136" customWidth="1"/>
     <col min="5" max="5" width="17" style="136" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="136" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="136" customWidth="1"/>
-    <col min="8" max="8" width="60.83203125" style="136" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="136" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="136" customWidth="1"/>
+    <col min="8" max="8" width="60.85546875" style="136" customWidth="1"/>
     <col min="9" max="16384" width="9" style="136"/>
   </cols>
   <sheetData>
@@ -7795,64 +7802,64 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="136"/>
-    <col min="2" max="2" width="24.33203125" style="136" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="22.5" style="136" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" style="136" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" style="136" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="136" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="136" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="136" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="136" customWidth="1"/>
-    <col min="13" max="13" width="26.6640625" style="136" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="136" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="136" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="136" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" style="136" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" style="136" customWidth="1"/>
-    <col min="19" max="19" width="9.83203125" style="136" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" style="136" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" style="136" customWidth="1"/>
-    <col min="22" max="22" width="10.5" style="136" customWidth="1"/>
-    <col min="23" max="23" width="9.33203125" style="136" customWidth="1"/>
-    <col min="24" max="24" width="8.33203125" style="136" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="136" customWidth="1"/>
-    <col min="26" max="26" width="8.83203125" style="136" customWidth="1"/>
-    <col min="27" max="27" width="10.1640625" style="136" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5" style="136" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" style="136" customWidth="1"/>
-    <col min="30" max="30" width="10.5" style="136" customWidth="1"/>
-    <col min="31" max="31" width="13.1640625" style="136" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" style="136" customWidth="1"/>
-    <col min="33" max="33" width="14.83203125" style="136" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="136" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="22.42578125" style="136" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="136" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="136" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="136" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="136" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="136" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" style="136" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="136" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="136" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="136" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" style="136" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" style="136" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="136" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" style="136" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="136" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" style="136" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" style="136" customWidth="1"/>
+    <col min="24" max="24" width="8.28515625" style="136" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="136" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" style="136" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" style="136" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" style="136" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="136" customWidth="1"/>
+    <col min="30" max="30" width="10.42578125" style="136" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" style="136" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" style="136" customWidth="1"/>
+    <col min="33" max="33" width="14.85546875" style="136" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="9" style="136"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="17" thickBot="1">
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="190" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
     </row>
     <row r="4" spans="2:10" ht="15" thickTop="1"/>
     <row r="5" spans="2:10" ht="15" customHeight="1">
-      <c r="B5" s="188" t="s">
+      <c r="B5" s="187" t="s">
         <v>285</v>
       </c>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="190"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="189"/>
     </row>
     <row r="7" spans="2:10">
       <c r="C7" s="156" t="s">
@@ -8018,23 +8025,23 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="17" thickBot="1">
-      <c r="B18" s="187" t="s">
+      <c r="B18" s="190" t="s">
         <v>270</v>
       </c>
-      <c r="C18" s="187"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
     </row>
     <row r="19" spans="2:6" ht="15" thickTop="1"/>
     <row r="20" spans="2:6">
-      <c r="B20" s="188" t="s">
+      <c r="B20" s="187" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="189"/>
-      <c r="D20" s="189"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="190"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="189"/>
     </row>
     <row r="22" spans="2:6">
       <c r="C22" s="156" t="s">
@@ -8199,23 +8206,23 @@
       </c>
     </row>
     <row r="35" spans="2:6" ht="17" thickBot="1">
-      <c r="B35" s="187" t="s">
+      <c r="B35" s="190" t="s">
         <v>261</v>
       </c>
-      <c r="C35" s="187"/>
-      <c r="D35" s="187"/>
-      <c r="E35" s="187"/>
-      <c r="F35" s="187"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
     </row>
     <row r="36" spans="2:6" ht="15" thickTop="1"/>
     <row r="37" spans="2:6">
-      <c r="B37" s="188" t="s">
+      <c r="B37" s="187" t="s">
         <v>260</v>
       </c>
-      <c r="C37" s="189"/>
-      <c r="D37" s="189"/>
-      <c r="E37" s="189"/>
-      <c r="F37" s="190"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="189"/>
     </row>
     <row r="39" spans="2:6">
       <c r="C39" s="158" t="s">
